--- a/1. Final Documentation/22. Test Plan/Patrick/8_7_to_13_Tests.xlsx
+++ b/1. Final Documentation/22. Test Plan/Patrick/8_7_to_13_Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Local\patrick.cura2\Weltec-Project\Test Plan\Patrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaptopBackup\Desktop\School\Project\Weltec-Project\1. Final Documentation\22. Test Plan\Patrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="2" r:id="rId1"/>
-    <sheet name="PriceCompare Test Plan" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Plan" sheetId="1" r:id="rId2"/>
     <sheet name="Options" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'PriceCompare Test Plan'!$A$1:$G$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Plan'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Application</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">                                                    </t>
   </si>
   <si>
-    <t>PriceCompare Test Plan</t>
-  </si>
-  <si>
     <t>Patrick Cura</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>List of SQL Server instances appear</t>
   </si>
   <si>
-    <t>The dropdown box is filled with the databases under the selected instance</t>
-  </si>
-  <si>
     <t>Start Button</t>
   </si>
   <si>
@@ -179,10 +173,13 @@
     <t>Splash screen has no close button</t>
   </si>
   <si>
-    <t>Splahs screen is not resizable</t>
-  </si>
-  <si>
     <t>Week of August 7 to 13, 2016</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Splash screen is not resizable</t>
   </si>
 </sst>
 </file>
@@ -261,6 +258,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,7 +952,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
+      <numFmt numFmtId="164" formatCode="d\-mmm\-yy"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -1373,7 +1371,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,16 +1410,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>42501</v>
+        <v>42583</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>14</v>
@@ -1515,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1534,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1546,7 +1544,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -1559,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -1568,10 +1566,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -1583,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -1605,7 +1603,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="50"/>
@@ -1613,7 +1611,7 @@
       <c r="E7" s="50"/>
       <c r="F7" s="51"/>
       <c r="G7" s="23">
-        <f>COUNTIF(E10:E17,"Y")/ROWS(E10:E17)</f>
+        <f>COUNTIF(E10:E16,"Y")/ROWS(E10:E16)</f>
         <v>1</v>
       </c>
     </row>
@@ -1635,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>2</v>
@@ -1644,24 +1642,24 @@
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="C10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -1670,10 +1668,10 @@
       <c r="B11" s="54"/>
       <c r="C11" s="56"/>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -1685,26 +1683,26 @@
         <v>43</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="D13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,10 +1710,10 @@
       <c r="B14" s="54"/>
       <c r="C14" s="40"/>
       <c r="D14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -1723,48 +1721,35 @@
       <c r="A15" s="52"/>
       <c r="B15" s="54"/>
       <c r="C15" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="39" t="s">
-        <v>33</v>
+      <c r="B16" s="55"/>
+      <c r="C16" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="38"/>
+        <v>23</v>
+      </c>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="13">
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1774,10 +1759,10 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="G7">
     <cfRule type="cellIs" dxfId="5" priority="27" operator="lessThan">
@@ -1796,7 +1781,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E17">
+  <conditionalFormatting sqref="E10:E16">
     <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -1814,7 +1799,7 @@
           <x14:formula1>
             <xm:f>Options!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E10:E17</xm:sqref>
+          <xm:sqref>E10:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1834,12 +1819,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
